--- a/fran-bow.xlsx
+++ b/fran-bow.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elias\Desktop\Projekte\fran-bow-sheet-music\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5830F543-7909-4566-B39B-24B3522BF40C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D0B9BE-C60A-4EFB-9685-6DFCD14B6003}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27360" windowHeight="13020" xr2:uid="{7FC433A5-67D2-441E-8B6E-3D08624C8CD4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="186">
   <si>
     <t>01 Bedtime Story</t>
   </si>
@@ -1224,8 +1224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F411FA-725C-4444-BFA2-528BA14C5E26}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F21" sqref="F20:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1635,7 +1635,7 @@
       <c r="E20" s="6">
         <v>19</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="3" t="s">
         <v>158</v>
       </c>
     </row>
@@ -1655,7 +1655,7 @@
       <c r="E21" s="6">
         <v>20</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="3" t="s">
         <v>159</v>
       </c>
     </row>
